--- a/EvaluationResults/RQ2+RQ3/4-SlsDetector-llama-result.xlsx
+++ b/EvaluationResults/RQ2+RQ3/4-SlsDetector-llama-result.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11211"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cynthia/Desktop/Cynthia WorkSpace/serverless misconfiguration/LLM新方法设计/AllCode/Output/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B6CAC5-061E-8C45-AB3A-937488E414BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="-20460" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="30240" windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="gpt4o" sheetId="1" r:id="rId1"/>
@@ -24,6 +18,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +29,40 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="311">
   <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>File name</t>
+  </si>
+  <si>
     <t>URL</t>
+  </si>
+  <si>
+    <t>Root Cause</t>
+  </si>
+  <si>
+    <t>ground truth (0-file without errors; 1-file with errors)</t>
+  </si>
+  <si>
+    <t>ground truth-total number of  configuration parameters</t>
+  </si>
+  <si>
+    <t>ground truth-total number of  correct configuration parameters</t>
+  </si>
+  <si>
+    <t>ground truth-total number of  misconfigured parameters</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>TN</t>
   </si>
   <si>
     <t>case1-github.yaml</t>
@@ -947,57 +976,19 @@
   </si>
   <si>
     <t>accuracy</t>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>File name</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Root Cause</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ground truth (0-file without errors; 1-file with errors)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ground truth-total number of  configuration parameters</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ground truth-total number of  correct configuration parameters</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ground truth-total number of  misconfigured parameters</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>TP</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>FN</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>FP</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>TN</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1009,41 +1000,178 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF181A1C"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1056,8 +1184,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1065,9 +1379,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1093,27 +1649,71 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1371,26 +1971,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:P119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="I109" sqref="I109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.796875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.2019230769231" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7980769230769" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="2" customWidth="1"/>
-    <col min="5" max="6" width="12.59765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.796875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="12.5961538461538" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7980769230769" style="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="1" customWidth="1"/>
     <col min="9" max="9" width="14" style="3"/>
     <col min="10" max="10" width="14" style="1"/>
@@ -1398,59 +1998,59 @@
     <col min="12" max="16384" width="14" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="96" customHeight="1">
+    <row r="1" ht="96" customHeight="1" spans="1:16">
       <c r="A1" s="4" t="s">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>301</v>
+        <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>302</v>
+        <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>303</v>
+        <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>304</v>
+        <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>305</v>
+        <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="P1" s="9"/>
-    </row>
-    <row r="2" spans="1:16" ht="85">
+        <v>7</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="P1" s="7"/>
+    </row>
+    <row r="2" ht="88" spans="1:16">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E2" s="4">
         <v>0</v>
@@ -1464,14 +2064,14 @@
       <c r="H2" s="4">
         <v>0</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="8">
         <v>0</v>
       </c>
       <c r="J2" s="4">
         <f t="shared" ref="J2:J33" si="0">H2-I2</f>
         <v>0</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="9">
         <v>4</v>
       </c>
       <c r="L2" s="2">
@@ -1483,18 +2083,18 @@
       <c r="O2" s="2"/>
       <c r="P2" s="4"/>
     </row>
-    <row r="3" spans="1:16" ht="85">
+    <row r="3" ht="88" spans="1:16">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E3" s="4">
         <v>0</v>
@@ -1508,14 +2108,14 @@
       <c r="H3" s="4">
         <v>0</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="8">
         <v>0</v>
       </c>
       <c r="J3" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="9">
         <v>8</v>
       </c>
       <c r="L3" s="2">
@@ -1527,18 +2127,18 @@
       <c r="O3" s="2"/>
       <c r="P3" s="4"/>
     </row>
-    <row r="4" spans="1:16" ht="85">
+    <row r="4" ht="88" spans="1:16">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E4" s="4">
         <v>0</v>
@@ -1552,14 +2152,14 @@
       <c r="H4" s="4">
         <v>0</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="8">
         <v>0</v>
       </c>
       <c r="J4" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="9">
         <v>2</v>
       </c>
       <c r="L4" s="2">
@@ -1571,18 +2171,18 @@
       <c r="O4" s="2"/>
       <c r="P4" s="4"/>
     </row>
-    <row r="5" spans="1:16" ht="85">
+    <row r="5" ht="88" spans="1:16">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
@@ -1596,14 +2196,14 @@
       <c r="H5" s="4">
         <v>0</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="8">
         <v>0</v>
       </c>
       <c r="J5" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="9">
         <v>2</v>
       </c>
       <c r="L5" s="2">
@@ -1615,18 +2215,18 @@
       <c r="O5" s="2"/>
       <c r="P5" s="4"/>
     </row>
-    <row r="6" spans="1:16" ht="51">
+    <row r="6" ht="53" spans="1:16">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E6" s="4">
         <v>0</v>
@@ -1640,14 +2240,14 @@
       <c r="H6" s="4">
         <v>0</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="8">
         <v>0</v>
       </c>
       <c r="J6" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="9">
         <v>3</v>
       </c>
       <c r="L6" s="2">
@@ -1659,18 +2259,18 @@
       <c r="O6" s="2"/>
       <c r="P6" s="4"/>
     </row>
-    <row r="7" spans="1:16" ht="85">
+    <row r="7" ht="88" spans="1:16">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E7" s="4">
         <v>0</v>
@@ -1684,14 +2284,14 @@
       <c r="H7" s="4">
         <v>0</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="8">
         <v>0</v>
       </c>
       <c r="J7" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="9">
         <v>1</v>
       </c>
       <c r="L7" s="2">
@@ -1703,18 +2303,18 @@
       <c r="O7" s="2"/>
       <c r="P7" s="4"/>
     </row>
-    <row r="8" spans="1:16" ht="85">
+    <row r="8" ht="88" spans="1:16">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>3</v>
       </c>
       <c r="E8" s="4">
         <v>0</v>
@@ -1728,14 +2328,14 @@
       <c r="H8" s="4">
         <v>0</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="8">
         <v>0</v>
       </c>
       <c r="J8" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="9">
         <v>1</v>
       </c>
       <c r="L8" s="2">
@@ -1747,18 +2347,18 @@
       <c r="O8" s="2"/>
       <c r="P8" s="4"/>
     </row>
-    <row r="9" spans="1:16" ht="85">
+    <row r="9" ht="88" spans="1:16">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E9" s="4">
         <v>0</v>
@@ -1772,14 +2372,14 @@
       <c r="H9" s="4">
         <v>0</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="8">
         <v>0</v>
       </c>
       <c r="J9" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="9">
         <v>3</v>
       </c>
       <c r="L9" s="2">
@@ -1791,18 +2391,18 @@
       <c r="O9" s="2"/>
       <c r="P9" s="4"/>
     </row>
-    <row r="10" spans="1:16" ht="85">
+    <row r="10" ht="88" spans="1:16">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E10" s="4">
         <v>0</v>
@@ -1816,14 +2416,14 @@
       <c r="H10" s="4">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="8">
         <v>0</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="9">
         <v>0</v>
       </c>
       <c r="L10" s="2">
@@ -1835,18 +2435,18 @@
       <c r="O10" s="2"/>
       <c r="P10" s="4"/>
     </row>
-    <row r="11" spans="1:16" ht="85">
+    <row r="11" ht="88" spans="1:16">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E11" s="4">
         <v>0</v>
@@ -1860,14 +2460,14 @@
       <c r="H11" s="4">
         <v>0</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="8">
         <v>0</v>
       </c>
       <c r="J11" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="8">
         <v>2</v>
       </c>
       <c r="L11" s="2">
@@ -1879,18 +2479,18 @@
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
     </row>
-    <row r="12" spans="1:16" ht="85">
+    <row r="12" ht="88" spans="1:16">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E12" s="4">
         <v>0</v>
@@ -1904,14 +2504,14 @@
       <c r="H12" s="4">
         <v>0</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="8">
         <v>0</v>
       </c>
       <c r="J12" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="9">
         <v>3</v>
       </c>
       <c r="L12" s="2">
@@ -1923,18 +2523,18 @@
       <c r="O12" s="2"/>
       <c r="P12" s="4"/>
     </row>
-    <row r="13" spans="1:16" ht="51">
+    <row r="13" ht="53" spans="1:16">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E13" s="4">
         <v>0</v>
@@ -1948,14 +2548,14 @@
       <c r="H13" s="4">
         <v>0</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="8">
         <v>0</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="9">
         <v>0</v>
       </c>
       <c r="L13" s="2">
@@ -1967,18 +2567,18 @@
       <c r="O13" s="2"/>
       <c r="P13" s="4"/>
     </row>
-    <row r="14" spans="1:16" ht="85">
+    <row r="14" ht="88" spans="1:16">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E14" s="4">
         <v>0</v>
@@ -1992,14 +2592,14 @@
       <c r="H14" s="4">
         <v>0</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="8">
         <v>0</v>
       </c>
       <c r="J14" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="9">
         <v>1</v>
       </c>
       <c r="L14" s="2">
@@ -2011,18 +2611,18 @@
       <c r="O14" s="2"/>
       <c r="P14" s="4"/>
     </row>
-    <row r="15" spans="1:16" ht="85">
+    <row r="15" ht="88" spans="1:16">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E15" s="4">
         <v>0</v>
@@ -2036,14 +2636,14 @@
       <c r="H15" s="4">
         <v>0</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="8">
         <v>0</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="9">
         <v>0</v>
       </c>
       <c r="L15" s="2">
@@ -2055,18 +2655,18 @@
       <c r="O15" s="2"/>
       <c r="P15" s="4"/>
     </row>
-    <row r="16" spans="1:16" ht="85">
+    <row r="16" ht="88" spans="1:16">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E16" s="4">
         <v>0</v>
@@ -2080,14 +2680,14 @@
       <c r="H16" s="4">
         <v>0</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="8">
         <v>0</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="9">
         <v>1</v>
       </c>
       <c r="L16" s="2">
@@ -2099,18 +2699,18 @@
       <c r="O16" s="2"/>
       <c r="P16" s="4"/>
     </row>
-    <row r="17" spans="1:16" ht="51">
+    <row r="17" ht="53" spans="1:16">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E17" s="4">
         <v>0</v>
@@ -2124,14 +2724,14 @@
       <c r="H17" s="4">
         <v>0</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="8">
         <v>0</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="9">
         <v>0</v>
       </c>
       <c r="L17" s="2">
@@ -2143,18 +2743,18 @@
       <c r="O17" s="2"/>
       <c r="P17" s="4"/>
     </row>
-    <row r="18" spans="1:16" ht="51">
+    <row r="18" ht="53" spans="1:16">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E18" s="4">
         <v>0</v>
@@ -2168,14 +2768,14 @@
       <c r="H18" s="4">
         <v>0</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="8">
         <v>0</v>
       </c>
       <c r="J18" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="9">
         <v>0</v>
       </c>
       <c r="L18" s="2">
@@ -2187,18 +2787,18 @@
       <c r="O18" s="2"/>
       <c r="P18" s="4"/>
     </row>
-    <row r="19" spans="1:16" ht="68">
+    <row r="19" ht="71" spans="1:16">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E19" s="4">
         <v>0</v>
@@ -2212,14 +2812,14 @@
       <c r="H19" s="4">
         <v>0</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="8">
         <v>0</v>
       </c>
       <c r="J19" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="9">
         <v>0</v>
       </c>
       <c r="L19" s="2">
@@ -2231,18 +2831,18 @@
       <c r="O19" s="2"/>
       <c r="P19" s="4"/>
     </row>
-    <row r="20" spans="1:16" ht="51">
+    <row r="20" ht="53" spans="1:16">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E20" s="4">
         <v>0</v>
@@ -2256,14 +2856,14 @@
       <c r="H20" s="4">
         <v>0</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="8">
         <v>0</v>
       </c>
       <c r="J20" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K20" s="8">
+      <c r="K20" s="9">
         <v>1</v>
       </c>
       <c r="L20" s="2">
@@ -2275,18 +2875,18 @@
       <c r="O20" s="2"/>
       <c r="P20" s="4"/>
     </row>
-    <row r="21" spans="1:16" ht="40" customHeight="1">
+    <row r="21" ht="40" customHeight="1" spans="1:16">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E21" s="4">
         <v>0</v>
@@ -2300,14 +2900,14 @@
       <c r="H21" s="4">
         <v>0</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="8">
         <v>0</v>
       </c>
       <c r="J21" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="9">
         <v>4</v>
       </c>
       <c r="L21" s="2">
@@ -2319,18 +2919,18 @@
       <c r="O21" s="2"/>
       <c r="P21" s="4"/>
     </row>
-    <row r="22" spans="1:16" ht="85">
+    <row r="22" ht="88" spans="1:16">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E22" s="4">
         <v>0</v>
@@ -2344,14 +2944,14 @@
       <c r="H22" s="4">
         <v>0</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="8">
         <v>0</v>
       </c>
       <c r="J22" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K22" s="8">
+      <c r="K22" s="9">
         <v>0</v>
       </c>
       <c r="L22" s="2">
@@ -2363,18 +2963,18 @@
       <c r="O22" s="2"/>
       <c r="P22" s="4"/>
     </row>
-    <row r="23" spans="1:16" ht="85">
+    <row r="23" ht="88" spans="1:16">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E23" s="4">
         <v>0</v>
@@ -2388,14 +2988,14 @@
       <c r="H23" s="4">
         <v>0</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="8">
         <v>0</v>
       </c>
       <c r="J23" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K23" s="8">
+      <c r="K23" s="9">
         <v>3</v>
       </c>
       <c r="L23" s="2">
@@ -2407,18 +3007,18 @@
       <c r="O23" s="2"/>
       <c r="P23" s="4"/>
     </row>
-    <row r="24" spans="1:16" ht="85">
+    <row r="24" ht="88" spans="1:16">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E24" s="4">
         <v>0</v>
@@ -2432,14 +3032,14 @@
       <c r="H24" s="4">
         <v>0</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="8">
         <v>0</v>
       </c>
       <c r="J24" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K24" s="8">
+      <c r="K24" s="9">
         <v>4</v>
       </c>
       <c r="L24" s="2">
@@ -2451,18 +3051,18 @@
       <c r="O24" s="2"/>
       <c r="P24" s="4"/>
     </row>
-    <row r="25" spans="1:16" ht="85">
+    <row r="25" ht="88" spans="1:16">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E25" s="4">
         <v>0</v>
@@ -2476,14 +3076,14 @@
       <c r="H25" s="4">
         <v>0</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="8">
         <v>0</v>
       </c>
       <c r="J25" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K25" s="8">
+      <c r="K25" s="9">
         <v>1</v>
       </c>
       <c r="L25" s="2">
@@ -2495,18 +3095,18 @@
       <c r="O25" s="2"/>
       <c r="P25" s="4"/>
     </row>
-    <row r="26" spans="1:16" ht="85">
+    <row r="26" ht="88" spans="1:16">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E26" s="4">
         <v>0</v>
@@ -2520,14 +3120,14 @@
       <c r="H26" s="4">
         <v>0</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="8">
         <v>0</v>
       </c>
       <c r="J26" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K26" s="8">
+      <c r="K26" s="9">
         <v>1</v>
       </c>
       <c r="L26" s="2">
@@ -2539,18 +3139,18 @@
       <c r="O26" s="2"/>
       <c r="P26" s="4"/>
     </row>
-    <row r="27" spans="1:16" ht="85">
+    <row r="27" ht="88" spans="1:16">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E27" s="4">
         <v>0</v>
@@ -2564,14 +3164,14 @@
       <c r="H27" s="4">
         <v>0</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="8">
         <v>0</v>
       </c>
       <c r="J27" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K27" s="8">
+      <c r="K27" s="9">
         <v>0</v>
       </c>
       <c r="L27" s="2">
@@ -2583,18 +3183,18 @@
       <c r="O27" s="2"/>
       <c r="P27" s="4"/>
     </row>
-    <row r="28" spans="1:16" ht="102">
+    <row r="28" ht="106" spans="1:16">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="E28" s="4">
         <v>1</v>
@@ -2608,14 +3208,14 @@
       <c r="H28" s="4">
         <v>1</v>
       </c>
-      <c r="I28" s="8">
+      <c r="I28" s="9">
         <v>1</v>
       </c>
       <c r="J28" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K28" s="8">
+      <c r="K28" s="9">
         <v>0</v>
       </c>
       <c r="L28" s="2">
@@ -2627,18 +3227,18 @@
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
     </row>
-    <row r="29" spans="1:16" ht="33" customHeight="1">
+    <row r="29" ht="33" customHeight="1" spans="1:16">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="E29" s="4">
         <v>1</v>
@@ -2652,14 +3252,14 @@
       <c r="H29" s="4">
         <v>16</v>
       </c>
-      <c r="I29" s="8">
+      <c r="I29" s="9">
         <v>16</v>
       </c>
       <c r="J29" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K29" s="8">
+      <c r="K29" s="9">
         <v>0</v>
       </c>
       <c r="L29" s="2">
@@ -2671,18 +3271,18 @@
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
     </row>
-    <row r="30" spans="1:16" ht="119">
+    <row r="30" ht="124" spans="1:16">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="E30" s="4">
         <v>1</v>
@@ -2696,14 +3296,14 @@
       <c r="H30" s="4">
         <v>9</v>
       </c>
-      <c r="I30" s="8">
+      <c r="I30" s="9">
         <v>9</v>
       </c>
       <c r="J30" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K30" s="8">
+      <c r="K30" s="9">
         <v>1</v>
       </c>
       <c r="L30" s="2">
@@ -2715,18 +3315,18 @@
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
     </row>
-    <row r="31" spans="1:16" ht="130" customHeight="1">
+    <row r="31" ht="130" customHeight="1" spans="1:16">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="E31" s="4">
         <v>1</v>
@@ -2740,14 +3340,14 @@
       <c r="H31" s="4">
         <v>22</v>
       </c>
-      <c r="I31" s="8">
+      <c r="I31" s="9">
         <v>2</v>
       </c>
       <c r="J31" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="K31" s="8">
+      <c r="K31" s="9">
         <v>0</v>
       </c>
       <c r="L31" s="2">
@@ -2759,18 +3359,18 @@
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="1:16" ht="85" customHeight="1">
+    <row r="32" ht="85" customHeight="1" spans="1:16">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="E32" s="4">
         <v>1</v>
@@ -2784,14 +3384,14 @@
       <c r="H32" s="4">
         <v>5</v>
       </c>
-      <c r="I32" s="8">
+      <c r="I32" s="9">
         <v>5</v>
       </c>
       <c r="J32" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K32" s="8">
+      <c r="K32" s="9">
         <v>0</v>
       </c>
       <c r="L32" s="2">
@@ -2803,18 +3403,18 @@
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
     </row>
-    <row r="33" spans="1:16" ht="80" customHeight="1">
+    <row r="33" ht="80" customHeight="1" spans="1:16">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E33" s="4">
         <v>1</v>
@@ -2828,14 +3428,14 @@
       <c r="H33" s="4">
         <v>2</v>
       </c>
-      <c r="I33" s="8">
+      <c r="I33" s="9">
         <v>1</v>
       </c>
       <c r="J33" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K33" s="8">
+      <c r="K33" s="9">
         <v>0</v>
       </c>
       <c r="L33" s="2">
@@ -2847,18 +3447,18 @@
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
     </row>
-    <row r="34" spans="1:16" ht="109" customHeight="1">
+    <row r="34" ht="109" customHeight="1" spans="1:16">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="E34" s="4">
         <v>1</v>
@@ -2872,14 +3472,14 @@
       <c r="H34" s="4">
         <v>1</v>
       </c>
-      <c r="I34" s="8">
+      <c r="I34" s="9">
         <v>1</v>
       </c>
       <c r="J34" s="4">
         <f t="shared" ref="J34:J65" si="2">H34-I34</f>
         <v>0</v>
       </c>
-      <c r="K34" s="8">
+      <c r="K34" s="9">
         <v>0</v>
       </c>
       <c r="L34" s="2">
@@ -2891,18 +3491,18 @@
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
     </row>
-    <row r="35" spans="1:16" ht="85">
+    <row r="35" ht="88" spans="1:16">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="E35" s="4">
         <v>1</v>
@@ -2916,14 +3516,14 @@
       <c r="H35" s="4">
         <v>1</v>
       </c>
-      <c r="I35" s="8">
+      <c r="I35" s="9">
         <v>0</v>
       </c>
       <c r="J35" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K35" s="8">
+      <c r="K35" s="9">
         <v>0</v>
       </c>
       <c r="L35" s="2">
@@ -2935,18 +3535,18 @@
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
     </row>
-    <row r="36" spans="1:16" ht="115" customHeight="1">
+    <row r="36" ht="115" customHeight="1" spans="1:16">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="E36" s="4">
         <v>1</v>
@@ -2960,14 +3560,14 @@
       <c r="H36" s="4">
         <v>1</v>
       </c>
-      <c r="I36" s="8">
+      <c r="I36" s="9">
         <v>0</v>
       </c>
       <c r="J36" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K36" s="8">
+      <c r="K36" s="9">
         <v>1</v>
       </c>
       <c r="L36" s="2">
@@ -2979,18 +3579,18 @@
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
     </row>
-    <row r="37" spans="1:16" ht="185" customHeight="1">
+    <row r="37" ht="185" customHeight="1" spans="1:16">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E37" s="4">
         <v>1</v>
@@ -3004,14 +3604,14 @@
       <c r="H37" s="4">
         <v>4</v>
       </c>
-      <c r="I37" s="8">
+      <c r="I37" s="9">
         <v>3</v>
       </c>
       <c r="J37" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K37" s="8">
+      <c r="K37" s="9">
         <v>3</v>
       </c>
       <c r="L37" s="2">
@@ -3023,18 +3623,18 @@
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
     </row>
-    <row r="38" spans="1:16" ht="85">
+    <row r="38" ht="71" spans="1:16">
       <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="E38" s="4">
         <v>1</v>
@@ -3048,14 +3648,14 @@
       <c r="H38" s="4">
         <v>1</v>
       </c>
-      <c r="I38" s="8">
+      <c r="I38" s="9">
         <v>1</v>
       </c>
       <c r="J38" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K38" s="8">
+      <c r="K38" s="9">
         <v>1</v>
       </c>
       <c r="L38" s="2">
@@ -3067,18 +3667,18 @@
       <c r="O38" s="2"/>
       <c r="P38" s="4"/>
     </row>
-    <row r="39" spans="1:16" ht="68" customHeight="1">
+    <row r="39" ht="68" customHeight="1" spans="1:16">
       <c r="A39" s="2">
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="E39" s="4">
         <v>1</v>
@@ -3092,14 +3692,14 @@
       <c r="H39" s="4">
         <v>6</v>
       </c>
-      <c r="I39" s="8">
+      <c r="I39" s="9">
         <v>6</v>
       </c>
       <c r="J39" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K39" s="8">
+      <c r="K39" s="9">
         <v>0</v>
       </c>
       <c r="L39" s="2">
@@ -3111,18 +3711,18 @@
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
     </row>
-    <row r="40" spans="1:16" ht="140" customHeight="1">
+    <row r="40" ht="140" customHeight="1" spans="1:16">
       <c r="A40" s="2">
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="E40" s="4">
         <v>1</v>
@@ -3136,14 +3736,14 @@
       <c r="H40" s="4">
         <v>22</v>
       </c>
-      <c r="I40" s="8">
+      <c r="I40" s="9">
         <v>22</v>
       </c>
       <c r="J40" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K40" s="8">
+      <c r="K40" s="9">
         <v>0</v>
       </c>
       <c r="L40" s="2">
@@ -3155,18 +3755,18 @@
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
     </row>
-    <row r="41" spans="1:16" ht="68">
+    <row r="41" ht="71" spans="1:16">
       <c r="A41" s="2">
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="E41" s="4">
         <v>1</v>
@@ -3180,14 +3780,14 @@
       <c r="H41" s="4">
         <v>2</v>
       </c>
-      <c r="I41" s="8">
+      <c r="I41" s="9">
         <v>2</v>
       </c>
       <c r="J41" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K41" s="8">
+      <c r="K41" s="9">
         <v>0</v>
       </c>
       <c r="L41" s="2">
@@ -3199,18 +3799,18 @@
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
     </row>
-    <row r="42" spans="1:16" ht="68">
+    <row r="42" ht="71" spans="1:16">
       <c r="A42" s="2">
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="E42" s="4">
         <v>1</v>
@@ -3224,14 +3824,14 @@
       <c r="H42" s="4">
         <v>1</v>
       </c>
-      <c r="I42" s="8">
+      <c r="I42" s="9">
         <v>1</v>
       </c>
       <c r="J42" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K42" s="8">
+      <c r="K42" s="9">
         <v>0</v>
       </c>
       <c r="L42" s="2">
@@ -3243,18 +3843,18 @@
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
     </row>
-    <row r="43" spans="1:16" ht="46" customHeight="1">
+    <row r="43" ht="46" customHeight="1" spans="1:16">
       <c r="A43" s="2">
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="E43" s="4">
         <v>1</v>
@@ -3268,14 +3868,14 @@
       <c r="H43" s="4">
         <v>1</v>
       </c>
-      <c r="I43" s="8">
+      <c r="I43" s="9">
         <v>1</v>
       </c>
       <c r="J43" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K43" s="8">
+      <c r="K43" s="9">
         <v>2</v>
       </c>
       <c r="L43" s="2">
@@ -3287,18 +3887,18 @@
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
     </row>
-    <row r="44" spans="1:16" ht="76" customHeight="1">
+    <row r="44" ht="76" customHeight="1" spans="1:16">
       <c r="A44" s="2">
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E44" s="4">
         <v>1</v>
@@ -3312,14 +3912,14 @@
       <c r="H44" s="4">
         <v>8</v>
       </c>
-      <c r="I44" s="8">
+      <c r="I44" s="9">
         <v>0</v>
       </c>
       <c r="J44" s="4">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="K44" s="8">
+      <c r="K44" s="9">
         <v>1</v>
       </c>
       <c r="L44" s="2">
@@ -3331,18 +3931,18 @@
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
     </row>
-    <row r="45" spans="1:16" ht="102">
+    <row r="45" ht="106" spans="1:16">
       <c r="A45" s="2">
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="E45" s="4">
         <v>1</v>
@@ -3356,14 +3956,14 @@
       <c r="H45" s="4">
         <v>3</v>
       </c>
-      <c r="I45" s="8">
+      <c r="I45" s="9">
         <v>3</v>
       </c>
       <c r="J45" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K45" s="8">
+      <c r="K45" s="9">
         <v>0</v>
       </c>
       <c r="L45" s="2">
@@ -3375,18 +3975,18 @@
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
     </row>
-    <row r="46" spans="1:16" ht="119">
+    <row r="46" ht="124" spans="1:16">
       <c r="A46" s="2">
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="E46" s="4">
         <v>1</v>
@@ -3400,14 +4000,14 @@
       <c r="H46" s="4">
         <v>8</v>
       </c>
-      <c r="I46" s="8">
+      <c r="I46" s="9">
         <v>0</v>
       </c>
       <c r="J46" s="4">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="K46" s="8">
+      <c r="K46" s="9">
         <v>1</v>
       </c>
       <c r="L46" s="2">
@@ -3419,18 +4019,18 @@
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
     </row>
-    <row r="47" spans="1:16" ht="95" customHeight="1">
+    <row r="47" ht="95" customHeight="1" spans="1:16">
       <c r="A47" s="2">
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="E47" s="4">
         <v>1</v>
@@ -3444,14 +4044,14 @@
       <c r="H47" s="4">
         <v>1</v>
       </c>
-      <c r="I47" s="8">
+      <c r="I47" s="9">
         <v>1</v>
       </c>
       <c r="J47" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K47" s="8">
+      <c r="K47" s="9">
         <v>1</v>
       </c>
       <c r="L47" s="2">
@@ -3463,18 +4063,18 @@
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
     </row>
-    <row r="48" spans="1:16" ht="102">
+    <row r="48" ht="106" spans="1:16">
       <c r="A48" s="2">
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="E48" s="4">
         <v>1</v>
@@ -3488,14 +4088,14 @@
       <c r="H48" s="4">
         <v>1</v>
       </c>
-      <c r="I48" s="8">
+      <c r="I48" s="9">
         <v>1</v>
       </c>
       <c r="J48" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K48" s="8">
+      <c r="K48" s="9">
         <v>0</v>
       </c>
       <c r="L48" s="2">
@@ -3507,18 +4107,18 @@
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
     </row>
-    <row r="49" spans="1:16" ht="66" customHeight="1">
+    <row r="49" ht="66" customHeight="1" spans="1:16">
       <c r="A49" s="2">
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="E49" s="4">
         <v>1</v>
@@ -3532,14 +4132,14 @@
       <c r="H49" s="4">
         <v>6</v>
       </c>
-      <c r="I49" s="8">
+      <c r="I49" s="9">
         <v>6</v>
       </c>
       <c r="J49" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K49" s="8">
+      <c r="K49" s="9">
         <v>0</v>
       </c>
       <c r="L49" s="2">
@@ -3551,18 +4151,18 @@
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
     </row>
-    <row r="50" spans="1:16" ht="93" customHeight="1">
+    <row r="50" ht="93" customHeight="1" spans="1:16">
       <c r="A50" s="2">
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="E50" s="4">
         <v>1</v>
@@ -3576,14 +4176,14 @@
       <c r="H50" s="4">
         <v>4</v>
       </c>
-      <c r="I50" s="8">
+      <c r="I50" s="9">
         <v>4</v>
       </c>
       <c r="J50" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K50" s="8">
+      <c r="K50" s="9">
         <v>2</v>
       </c>
       <c r="L50" s="2">
@@ -3595,18 +4195,18 @@
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
     </row>
-    <row r="51" spans="1:16" ht="85">
+    <row r="51" ht="88" spans="1:16">
       <c r="A51" s="2">
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="E51" s="4">
         <v>1</v>
@@ -3620,14 +4220,14 @@
       <c r="H51" s="4">
         <v>1</v>
       </c>
-      <c r="I51" s="8">
+      <c r="I51" s="9">
         <v>0</v>
       </c>
       <c r="J51" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K51" s="8">
+      <c r="K51" s="9">
         <v>0</v>
       </c>
       <c r="L51" s="2">
@@ -3639,18 +4239,18 @@
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
     </row>
-    <row r="52" spans="1:16" ht="58" customHeight="1">
+    <row r="52" ht="58" customHeight="1" spans="1:16">
       <c r="A52" s="2">
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="E52" s="4">
         <v>1</v>
@@ -3664,14 +4264,14 @@
       <c r="H52" s="4">
         <v>4</v>
       </c>
-      <c r="I52" s="8">
+      <c r="I52" s="9">
         <v>4</v>
       </c>
       <c r="J52" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K52" s="8">
+      <c r="K52" s="9">
         <v>0</v>
       </c>
       <c r="L52" s="2">
@@ -3683,18 +4283,18 @@
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
     </row>
-    <row r="53" spans="1:16" ht="85">
+    <row r="53" ht="88" spans="1:16">
       <c r="A53" s="2">
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="E53" s="2">
         <v>1</v>
@@ -3708,14 +4308,14 @@
       <c r="H53" s="2">
         <v>1</v>
       </c>
-      <c r="I53" s="8">
+      <c r="I53" s="9">
         <v>0</v>
       </c>
       <c r="J53" s="2">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K53" s="8">
+      <c r="K53" s="9">
         <v>0</v>
       </c>
       <c r="L53" s="2">
@@ -3727,18 +4327,18 @@
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
     </row>
-    <row r="54" spans="1:16" ht="67" customHeight="1">
+    <row r="54" ht="67" customHeight="1" spans="1:16">
       <c r="A54" s="2">
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="E54" s="4">
         <v>1</v>
@@ -3752,14 +4352,14 @@
       <c r="H54" s="4">
         <v>3</v>
       </c>
-      <c r="I54" s="8">
+      <c r="I54" s="9">
         <v>3</v>
       </c>
       <c r="J54" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K54" s="8">
+      <c r="K54" s="9">
         <v>0</v>
       </c>
       <c r="L54" s="2">
@@ -3771,18 +4371,18 @@
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
     </row>
-    <row r="55" spans="1:16" ht="117" customHeight="1">
+    <row r="55" ht="117" customHeight="1" spans="1:16">
       <c r="A55" s="2">
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="E55" s="4">
         <v>1</v>
@@ -3796,14 +4396,14 @@
       <c r="H55" s="4">
         <v>2</v>
       </c>
-      <c r="I55" s="8">
+      <c r="I55" s="9">
         <v>2</v>
       </c>
       <c r="J55" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K55" s="8">
+      <c r="K55" s="9">
         <v>2</v>
       </c>
       <c r="L55" s="2">
@@ -3815,18 +4415,18 @@
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
     </row>
-    <row r="56" spans="1:16" ht="55" customHeight="1">
+    <row r="56" ht="55" customHeight="1" spans="1:16">
       <c r="A56" s="2">
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="E56" s="4">
         <v>1</v>
@@ -3840,14 +4440,14 @@
       <c r="H56" s="4">
         <v>1</v>
       </c>
-      <c r="I56" s="8">
+      <c r="I56" s="9">
         <v>1</v>
       </c>
       <c r="J56" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K56" s="8">
+      <c r="K56" s="9">
         <v>1</v>
       </c>
       <c r="L56" s="2">
@@ -3859,18 +4459,18 @@
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
     </row>
-    <row r="57" spans="1:16" ht="66" customHeight="1">
+    <row r="57" ht="66" customHeight="1" spans="1:16">
       <c r="A57" s="2">
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="E57" s="4">
         <v>1</v>
@@ -3884,14 +4484,14 @@
       <c r="H57" s="4">
         <v>1</v>
       </c>
-      <c r="I57" s="8">
+      <c r="I57" s="9">
         <v>1</v>
       </c>
       <c r="J57" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K57" s="8">
+      <c r="K57" s="9">
         <v>3</v>
       </c>
       <c r="L57" s="2">
@@ -3903,18 +4503,18 @@
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
     </row>
-    <row r="58" spans="1:16" ht="93" customHeight="1">
+    <row r="58" ht="93" customHeight="1" spans="1:16">
       <c r="A58" s="2">
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="E58" s="4">
         <v>1</v>
@@ -3928,14 +4528,14 @@
       <c r="H58" s="4">
         <v>2</v>
       </c>
-      <c r="I58" s="8">
+      <c r="I58" s="9">
         <v>1</v>
       </c>
       <c r="J58" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K58" s="8">
+      <c r="K58" s="9">
         <v>3</v>
       </c>
       <c r="L58" s="2">
@@ -3947,18 +4547,18 @@
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
     </row>
-    <row r="59" spans="1:16" ht="75" customHeight="1">
+    <row r="59" ht="75" customHeight="1" spans="1:16">
       <c r="A59" s="2">
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="E59" s="4">
         <v>1</v>
@@ -3972,14 +4572,14 @@
       <c r="H59" s="4">
         <v>2</v>
       </c>
-      <c r="I59" s="8">
+      <c r="I59" s="9">
         <v>2</v>
       </c>
       <c r="J59" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K59" s="8">
+      <c r="K59" s="9">
         <v>0</v>
       </c>
       <c r="L59" s="2">
@@ -3991,18 +4591,18 @@
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
     </row>
-    <row r="60" spans="1:16" ht="85">
+    <row r="60" ht="71" spans="1:16">
       <c r="A60" s="2">
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="E60" s="4">
         <v>1</v>
@@ -4016,14 +4616,14 @@
       <c r="H60" s="4">
         <v>1</v>
       </c>
-      <c r="I60" s="8">
+      <c r="I60" s="9">
         <v>0</v>
       </c>
       <c r="J60" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K60" s="8">
+      <c r="K60" s="9">
         <v>0</v>
       </c>
       <c r="L60" s="2">
@@ -4035,18 +4635,18 @@
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
     </row>
-    <row r="61" spans="1:16" ht="65" customHeight="1">
+    <row r="61" ht="65" customHeight="1" spans="1:16">
       <c r="A61" s="2">
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="E61" s="4">
         <v>1</v>
@@ -4060,14 +4660,14 @@
       <c r="H61" s="4">
         <v>3</v>
       </c>
-      <c r="I61" s="8">
+      <c r="I61" s="9">
         <v>0</v>
       </c>
       <c r="J61" s="4">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="K61" s="8">
+      <c r="K61" s="9">
         <v>0</v>
       </c>
       <c r="L61" s="2">
@@ -4079,18 +4679,18 @@
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
     </row>
-    <row r="62" spans="1:16" ht="51">
+    <row r="62" ht="53" spans="1:16">
       <c r="A62" s="2">
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="E62" s="4">
         <v>1</v>
@@ -4104,14 +4704,14 @@
       <c r="H62" s="4">
         <v>3</v>
       </c>
-      <c r="I62" s="8">
+      <c r="I62" s="9">
         <v>3</v>
       </c>
       <c r="J62" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K62" s="8">
+      <c r="K62" s="9">
         <v>1</v>
       </c>
       <c r="L62" s="2">
@@ -4123,18 +4723,18 @@
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
     </row>
-    <row r="63" spans="1:16" ht="94" customHeight="1">
+    <row r="63" ht="94" customHeight="1" spans="1:16">
       <c r="A63" s="2">
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="E63" s="4">
         <v>1</v>
@@ -4148,14 +4748,14 @@
       <c r="H63" s="4">
         <v>2</v>
       </c>
-      <c r="I63" s="8">
+      <c r="I63" s="9">
         <v>1</v>
       </c>
       <c r="J63" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K63" s="8">
+      <c r="K63" s="9">
         <v>1</v>
       </c>
       <c r="L63" s="2">
@@ -4167,18 +4767,18 @@
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
     </row>
-    <row r="64" spans="1:16" ht="89" customHeight="1">
+    <row r="64" ht="89" customHeight="1" spans="1:16">
       <c r="A64" s="2">
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="E64" s="4">
         <v>1</v>
@@ -4192,14 +4792,14 @@
       <c r="H64" s="4">
         <v>3</v>
       </c>
-      <c r="I64" s="8">
+      <c r="I64" s="9">
         <v>1</v>
       </c>
       <c r="J64" s="4">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="K64" s="8">
+      <c r="K64" s="9">
         <v>1</v>
       </c>
       <c r="L64" s="2">
@@ -4211,18 +4811,18 @@
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
     </row>
-    <row r="65" spans="1:16" ht="64" customHeight="1">
+    <row r="65" ht="64" customHeight="1" spans="1:16">
       <c r="A65" s="2">
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="E65" s="4">
         <v>1</v>
@@ -4236,14 +4836,14 @@
       <c r="H65" s="4">
         <v>1</v>
       </c>
-      <c r="I65" s="8">
+      <c r="I65" s="9">
         <v>1</v>
       </c>
       <c r="J65" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K65" s="8">
+      <c r="K65" s="9">
         <v>0</v>
       </c>
       <c r="L65" s="2">
@@ -4255,18 +4855,18 @@
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
     </row>
-    <row r="66" spans="1:16" ht="29" customHeight="1">
+    <row r="66" ht="29" customHeight="1" spans="1:16">
       <c r="A66" s="2">
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="E66" s="4">
         <v>1</v>
@@ -4280,14 +4880,14 @@
       <c r="H66" s="4">
         <v>1</v>
       </c>
-      <c r="I66" s="8">
+      <c r="I66" s="9">
         <v>1</v>
       </c>
       <c r="J66" s="4">
         <f t="shared" ref="J66:J97" si="3">H66-I66</f>
         <v>0</v>
       </c>
-      <c r="K66" s="8">
+      <c r="K66" s="9">
         <v>0</v>
       </c>
       <c r="L66" s="2">
@@ -4299,18 +4899,18 @@
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
     </row>
-    <row r="67" spans="1:16" ht="73" customHeight="1">
+    <row r="67" ht="73" customHeight="1" spans="1:16">
       <c r="A67" s="2">
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="E67" s="4">
         <v>1</v>
@@ -4324,14 +4924,14 @@
       <c r="H67" s="4">
         <v>1</v>
       </c>
-      <c r="I67" s="8">
+      <c r="I67" s="9">
         <v>1</v>
       </c>
       <c r="J67" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K67" s="8">
+      <c r="K67" s="9">
         <v>0</v>
       </c>
       <c r="L67" s="2">
@@ -4343,18 +4943,18 @@
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
     </row>
-    <row r="68" spans="1:16" ht="85">
+    <row r="68" ht="88" spans="1:16">
       <c r="A68" s="2">
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="E68" s="4">
         <v>1</v>
@@ -4368,14 +4968,14 @@
       <c r="H68" s="4">
         <v>1</v>
       </c>
-      <c r="I68" s="8">
+      <c r="I68" s="9">
         <v>1</v>
       </c>
       <c r="J68" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K68" s="8">
+      <c r="K68" s="9">
         <v>0</v>
       </c>
       <c r="L68" s="2">
@@ -4387,18 +4987,18 @@
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
     </row>
-    <row r="69" spans="1:16" ht="85">
+    <row r="69" ht="88" spans="1:16">
       <c r="A69" s="2">
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="E69" s="4">
         <v>1</v>
@@ -4412,14 +5012,14 @@
       <c r="H69" s="4">
         <v>1</v>
       </c>
-      <c r="I69" s="8">
+      <c r="I69" s="9">
         <v>1</v>
       </c>
       <c r="J69" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K69" s="8">
+      <c r="K69" s="9">
         <v>0</v>
       </c>
       <c r="L69" s="2">
@@ -4431,18 +5031,18 @@
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
     </row>
-    <row r="70" spans="1:16" ht="89" customHeight="1">
+    <row r="70" ht="89" customHeight="1" spans="1:16">
       <c r="A70" s="2">
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="E70" s="4">
         <v>1</v>
@@ -4456,14 +5056,14 @@
       <c r="H70" s="4">
         <v>2</v>
       </c>
-      <c r="I70" s="8">
+      <c r="I70" s="9">
         <v>2</v>
       </c>
       <c r="J70" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K70" s="8">
+      <c r="K70" s="9">
         <v>1</v>
       </c>
       <c r="L70" s="2">
@@ -4475,18 +5075,18 @@
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
     </row>
-    <row r="71" spans="1:16" ht="51">
+    <row r="71" ht="53" spans="1:16">
       <c r="A71" s="2">
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="E71" s="4">
         <v>1</v>
@@ -4500,14 +5100,14 @@
       <c r="H71" s="4">
         <v>1</v>
       </c>
-      <c r="I71" s="8">
+      <c r="I71" s="9">
         <v>0</v>
       </c>
       <c r="J71" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K71" s="8">
+      <c r="K71" s="9">
         <v>0</v>
       </c>
       <c r="L71" s="2">
@@ -4519,18 +5119,18 @@
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
     </row>
-    <row r="72" spans="1:16" ht="85">
+    <row r="72" ht="88" spans="1:16">
       <c r="A72" s="2">
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="E72" s="4">
         <v>1</v>
@@ -4544,14 +5144,14 @@
       <c r="H72" s="4">
         <v>1</v>
       </c>
-      <c r="I72" s="8">
+      <c r="I72" s="9">
         <v>0</v>
       </c>
       <c r="J72" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K72" s="8">
+      <c r="K72" s="9">
         <v>0</v>
       </c>
       <c r="L72" s="2">
@@ -4563,18 +5163,18 @@
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
     </row>
-    <row r="73" spans="1:16" ht="61" customHeight="1">
+    <row r="73" ht="61" customHeight="1" spans="1:16">
       <c r="A73" s="2">
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="E73" s="4">
         <v>1</v>
@@ -4588,14 +5188,14 @@
       <c r="H73" s="4">
         <v>1</v>
       </c>
-      <c r="I73" s="8">
+      <c r="I73" s="9">
         <v>1</v>
       </c>
       <c r="J73" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K73" s="8">
+      <c r="K73" s="9">
         <v>0</v>
       </c>
       <c r="L73" s="2">
@@ -4607,18 +5207,18 @@
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
     </row>
-    <row r="74" spans="1:16" ht="85">
+    <row r="74" ht="88" spans="1:16">
       <c r="A74" s="2">
         <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="E74" s="4">
         <v>1</v>
@@ -4632,14 +5232,14 @@
       <c r="H74" s="4">
         <v>1</v>
       </c>
-      <c r="I74" s="8">
+      <c r="I74" s="9">
         <v>1</v>
       </c>
       <c r="J74" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K74" s="8">
+      <c r="K74" s="9">
         <v>1</v>
       </c>
       <c r="L74" s="2">
@@ -4651,18 +5251,18 @@
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
     </row>
-    <row r="75" spans="1:16" ht="85">
+    <row r="75" ht="71" spans="1:16">
       <c r="A75" s="2">
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E75" s="4">
         <v>1</v>
@@ -4676,14 +5276,14 @@
       <c r="H75" s="4">
         <v>1</v>
       </c>
-      <c r="I75" s="8">
+      <c r="I75" s="9">
         <v>1</v>
       </c>
       <c r="J75" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K75" s="8">
+      <c r="K75" s="9">
         <v>0</v>
       </c>
       <c r="L75" s="2">
@@ -4695,18 +5295,18 @@
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
     </row>
-    <row r="76" spans="1:16" ht="58" customHeight="1">
+    <row r="76" ht="58" customHeight="1" spans="1:16">
       <c r="A76" s="2">
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="E76" s="4">
         <v>1</v>
@@ -4720,14 +5320,14 @@
       <c r="H76" s="4">
         <v>2</v>
       </c>
-      <c r="I76" s="8">
+      <c r="I76" s="9">
         <v>1</v>
       </c>
       <c r="J76" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K76" s="8">
+      <c r="K76" s="9">
         <v>0</v>
       </c>
       <c r="L76" s="2">
@@ -4739,18 +5339,18 @@
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
     </row>
-    <row r="77" spans="1:16" ht="85">
+    <row r="77" ht="71" spans="1:16">
       <c r="A77" s="2">
         <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E77" s="4">
         <v>1</v>
@@ -4764,14 +5364,14 @@
       <c r="H77" s="4">
         <v>1</v>
       </c>
-      <c r="I77" s="8">
+      <c r="I77" s="9">
         <v>1</v>
       </c>
       <c r="J77" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K77" s="8">
+      <c r="K77" s="9">
         <v>0</v>
       </c>
       <c r="L77" s="2">
@@ -4783,18 +5383,18 @@
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
     </row>
-    <row r="78" spans="1:16" ht="102" customHeight="1">
+    <row r="78" ht="102" customHeight="1" spans="1:16">
       <c r="A78" s="2">
         <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="E78" s="4">
         <v>1</v>
@@ -4808,14 +5408,14 @@
       <c r="H78" s="4">
         <v>25</v>
       </c>
-      <c r="I78" s="8">
+      <c r="I78" s="9">
         <v>25</v>
       </c>
       <c r="J78" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K78" s="8">
+      <c r="K78" s="9">
         <v>1</v>
       </c>
       <c r="L78" s="2">
@@ -4827,18 +5427,18 @@
       <c r="O78" s="2"/>
       <c r="P78" s="2"/>
     </row>
-    <row r="79" spans="1:16" ht="85">
+    <row r="79" ht="71" spans="1:16">
       <c r="A79" s="2">
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="E79" s="4">
         <v>1</v>
@@ -4852,14 +5452,14 @@
       <c r="H79" s="4">
         <v>1</v>
       </c>
-      <c r="I79" s="8">
+      <c r="I79" s="9">
         <v>1</v>
       </c>
       <c r="J79" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K79" s="8">
+      <c r="K79" s="9">
         <v>0</v>
       </c>
       <c r="L79" s="2">
@@ -4871,18 +5471,18 @@
       <c r="O79" s="2"/>
       <c r="P79" s="2"/>
     </row>
-    <row r="80" spans="1:16" ht="51">
+    <row r="80" ht="53" spans="1:16">
       <c r="A80" s="2">
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="E80" s="4">
         <v>1</v>
@@ -4896,14 +5496,14 @@
       <c r="H80" s="4">
         <v>1</v>
       </c>
-      <c r="I80" s="8">
+      <c r="I80" s="9">
         <v>1</v>
       </c>
       <c r="J80" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K80" s="8">
+      <c r="K80" s="9">
         <v>0</v>
       </c>
       <c r="L80" s="2">
@@ -4915,18 +5515,18 @@
       <c r="O80" s="2"/>
       <c r="P80" s="2"/>
     </row>
-    <row r="81" spans="1:16" ht="83" customHeight="1">
+    <row r="81" ht="83" customHeight="1" spans="1:16">
       <c r="A81" s="2">
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="E81" s="4">
         <v>1</v>
@@ -4940,14 +5540,14 @@
       <c r="H81" s="4">
         <v>2</v>
       </c>
-      <c r="I81" s="8">
+      <c r="I81" s="9">
         <v>2</v>
       </c>
       <c r="J81" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K81" s="8">
+      <c r="K81" s="9">
         <v>0</v>
       </c>
       <c r="L81" s="2">
@@ -4959,18 +5559,18 @@
       <c r="O81" s="2"/>
       <c r="P81" s="2"/>
     </row>
-    <row r="82" spans="1:16" ht="76" customHeight="1">
+    <row r="82" ht="76" customHeight="1" spans="1:16">
       <c r="A82" s="2">
         <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="E82" s="4">
         <v>1</v>
@@ -4984,14 +5584,14 @@
       <c r="H82" s="4">
         <v>13</v>
       </c>
-      <c r="I82" s="8">
+      <c r="I82" s="9">
         <v>13</v>
       </c>
       <c r="J82" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K82" s="8">
+      <c r="K82" s="9">
         <v>2</v>
       </c>
       <c r="L82" s="2">
@@ -5003,18 +5603,18 @@
       <c r="O82" s="2"/>
       <c r="P82" s="2"/>
     </row>
-    <row r="83" spans="1:16" ht="72" customHeight="1">
+    <row r="83" ht="72" customHeight="1" spans="1:16">
       <c r="A83" s="2">
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="E83" s="4">
         <v>1</v>
@@ -5028,14 +5628,14 @@
       <c r="H83" s="4">
         <v>4</v>
       </c>
-      <c r="I83" s="8">
+      <c r="I83" s="9">
         <v>4</v>
       </c>
       <c r="J83" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K83" s="8">
+      <c r="K83" s="9">
         <v>0</v>
       </c>
       <c r="L83" s="2">
@@ -5047,18 +5647,18 @@
       <c r="O83" s="2"/>
       <c r="P83" s="2"/>
     </row>
-    <row r="84" spans="1:16" ht="72" customHeight="1">
+    <row r="84" ht="72" customHeight="1" spans="1:16">
       <c r="A84" s="2">
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="E84" s="4">
         <v>1</v>
@@ -5072,14 +5672,14 @@
       <c r="H84" s="4">
         <v>2</v>
       </c>
-      <c r="I84" s="8">
+      <c r="I84" s="9">
         <v>2</v>
       </c>
       <c r="J84" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K84" s="8">
+      <c r="K84" s="9">
         <v>1</v>
       </c>
       <c r="L84" s="2">
@@ -5091,18 +5691,18 @@
       <c r="O84" s="2"/>
       <c r="P84" s="2"/>
     </row>
-    <row r="85" spans="1:16" ht="90" customHeight="1">
+    <row r="85" ht="90" customHeight="1" spans="1:16">
       <c r="A85" s="2">
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="E85" s="4">
         <v>1</v>
@@ -5116,14 +5716,14 @@
       <c r="H85" s="4">
         <v>1</v>
       </c>
-      <c r="I85" s="8">
+      <c r="I85" s="9">
         <v>0</v>
       </c>
       <c r="J85" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K85" s="8">
+      <c r="K85" s="9">
         <v>1</v>
       </c>
       <c r="L85" s="2">
@@ -5135,18 +5735,18 @@
       <c r="O85" s="2"/>
       <c r="P85" s="2"/>
     </row>
-    <row r="86" spans="1:16" ht="51">
+    <row r="86" ht="53" spans="1:16">
       <c r="A86" s="2">
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="E86" s="4">
         <v>1</v>
@@ -5160,14 +5760,14 @@
       <c r="H86" s="4">
         <v>1</v>
       </c>
-      <c r="I86" s="8">
+      <c r="I86" s="9">
         <v>0</v>
       </c>
       <c r="J86" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K86" s="8">
+      <c r="K86" s="9">
         <v>0</v>
       </c>
       <c r="L86" s="2">
@@ -5179,18 +5779,18 @@
       <c r="O86" s="2"/>
       <c r="P86" s="2"/>
     </row>
-    <row r="87" spans="1:16" ht="81" customHeight="1">
+    <row r="87" ht="81" customHeight="1" spans="1:16">
       <c r="A87" s="2">
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="E87" s="4">
         <v>1</v>
@@ -5204,14 +5804,14 @@
       <c r="H87" s="4">
         <v>10</v>
       </c>
-      <c r="I87" s="8">
+      <c r="I87" s="9">
         <v>0</v>
       </c>
       <c r="J87" s="4">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="K87" s="8">
+      <c r="K87" s="9">
         <v>0</v>
       </c>
       <c r="L87" s="2">
@@ -5223,18 +5823,18 @@
       <c r="O87" s="2"/>
       <c r="P87" s="2"/>
     </row>
-    <row r="88" spans="1:16" ht="51">
+    <row r="88" ht="53" spans="1:16">
       <c r="A88" s="2">
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="E88" s="4">
         <v>1</v>
@@ -5248,14 +5848,14 @@
       <c r="H88" s="4">
         <v>1</v>
       </c>
-      <c r="I88" s="8">
+      <c r="I88" s="9">
         <v>0</v>
       </c>
       <c r="J88" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K88" s="8">
+      <c r="K88" s="9">
         <v>4</v>
       </c>
       <c r="L88" s="2">
@@ -5267,18 +5867,18 @@
       <c r="O88" s="2"/>
       <c r="P88" s="2"/>
     </row>
-    <row r="89" spans="1:16" ht="102">
+    <row r="89" ht="106" spans="1:16">
       <c r="A89" s="2">
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="E89" s="4">
         <v>1</v>
@@ -5292,14 +5892,14 @@
       <c r="H89" s="4">
         <v>1</v>
       </c>
-      <c r="I89" s="8">
+      <c r="I89" s="9">
         <v>1</v>
       </c>
       <c r="J89" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K89" s="8">
+      <c r="K89" s="9">
         <v>0</v>
       </c>
       <c r="L89" s="2">
@@ -5311,18 +5911,18 @@
       <c r="O89" s="2"/>
       <c r="P89" s="2"/>
     </row>
-    <row r="90" spans="1:16" ht="68">
+    <row r="90" ht="71" spans="1:16">
       <c r="A90" s="2">
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="E90" s="4">
         <v>1</v>
@@ -5336,14 +5936,14 @@
       <c r="H90" s="4">
         <v>15</v>
       </c>
-      <c r="I90" s="8">
+      <c r="I90" s="9">
         <v>15</v>
       </c>
       <c r="J90" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K90" s="8">
+      <c r="K90" s="9">
         <v>2</v>
       </c>
       <c r="L90" s="2">
@@ -5355,18 +5955,18 @@
       <c r="O90" s="2"/>
       <c r="P90" s="2"/>
     </row>
-    <row r="91" spans="1:16" ht="85">
+    <row r="91" ht="71" spans="1:16">
       <c r="A91" s="2">
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="E91" s="4">
         <v>1</v>
@@ -5380,14 +5980,14 @@
       <c r="H91" s="4">
         <v>4</v>
       </c>
-      <c r="I91" s="8">
+      <c r="I91" s="9">
         <v>0</v>
       </c>
       <c r="J91" s="4">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="K91" s="8">
+      <c r="K91" s="9">
         <v>0</v>
       </c>
       <c r="L91" s="2">
@@ -5399,18 +5999,18 @@
       <c r="O91" s="2"/>
       <c r="P91" s="2"/>
     </row>
-    <row r="92" spans="1:16" ht="85">
+    <row r="92" ht="88" spans="1:16">
       <c r="A92" s="2">
         <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="E92" s="4">
         <v>1</v>
@@ -5424,14 +6024,14 @@
       <c r="H92" s="4">
         <v>1</v>
       </c>
-      <c r="I92" s="8">
+      <c r="I92" s="9">
         <v>1</v>
       </c>
       <c r="J92" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K92" s="8">
+      <c r="K92" s="9">
         <v>0</v>
       </c>
       <c r="L92" s="2">
@@ -5443,18 +6043,18 @@
       <c r="O92" s="2"/>
       <c r="P92" s="2"/>
     </row>
-    <row r="93" spans="1:16" ht="85">
+    <row r="93" ht="88" spans="1:16">
       <c r="A93" s="2">
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="E93" s="4">
         <v>1</v>
@@ -5468,14 +6068,14 @@
       <c r="H93" s="4">
         <v>1</v>
       </c>
-      <c r="I93" s="8">
+      <c r="I93" s="9">
         <v>1</v>
       </c>
       <c r="J93" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K93" s="8">
+      <c r="K93" s="9">
         <v>0</v>
       </c>
       <c r="L93" s="2">
@@ -5487,18 +6087,18 @@
       <c r="O93" s="2"/>
       <c r="P93" s="2"/>
     </row>
-    <row r="94" spans="1:16" ht="85">
+    <row r="94" ht="88" spans="1:16">
       <c r="A94" s="2">
         <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="E94" s="4">
         <v>1</v>
@@ -5512,14 +6112,14 @@
       <c r="H94" s="4">
         <v>1</v>
       </c>
-      <c r="I94" s="8">
+      <c r="I94" s="9">
         <v>1</v>
       </c>
       <c r="J94" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K94" s="8">
+      <c r="K94" s="9">
         <v>0</v>
       </c>
       <c r="L94" s="2">
@@ -5531,18 +6131,18 @@
       <c r="O94" s="2"/>
       <c r="P94" s="2"/>
     </row>
-    <row r="95" spans="1:16" ht="85">
+    <row r="95" ht="88" spans="1:16">
       <c r="A95" s="2">
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="E95" s="4">
         <v>1</v>
@@ -5556,14 +6156,14 @@
       <c r="H95" s="4">
         <v>1</v>
       </c>
-      <c r="I95" s="8">
+      <c r="I95" s="9">
         <v>1</v>
       </c>
       <c r="J95" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K95" s="8">
+      <c r="K95" s="9">
         <v>0</v>
       </c>
       <c r="L95" s="2">
@@ -5575,18 +6175,18 @@
       <c r="O95" s="2"/>
       <c r="P95" s="2"/>
     </row>
-    <row r="96" spans="1:16" ht="96" customHeight="1">
+    <row r="96" ht="96" customHeight="1" spans="1:16">
       <c r="A96" s="2">
         <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="E96" s="4">
         <v>1</v>
@@ -5600,14 +6200,14 @@
       <c r="H96" s="4">
         <v>3</v>
       </c>
-      <c r="I96" s="8">
+      <c r="I96" s="9">
         <v>3</v>
       </c>
       <c r="J96" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K96" s="8">
+      <c r="K96" s="9">
         <v>0</v>
       </c>
       <c r="L96" s="2">
@@ -5619,18 +6219,18 @@
       <c r="O96" s="2"/>
       <c r="P96" s="2"/>
     </row>
-    <row r="97" spans="1:16" ht="85">
+    <row r="97" ht="71" spans="1:16">
       <c r="A97" s="2">
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="E97" s="4">
         <v>1</v>
@@ -5644,14 +6244,14 @@
       <c r="H97" s="4">
         <v>3</v>
       </c>
-      <c r="I97" s="8">
+      <c r="I97" s="9">
         <v>3</v>
       </c>
       <c r="J97" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K97" s="8">
+      <c r="K97" s="9">
         <v>3</v>
       </c>
       <c r="L97" s="2">
@@ -5663,18 +6263,18 @@
       <c r="O97" s="2"/>
       <c r="P97" s="2"/>
     </row>
-    <row r="98" spans="1:16" ht="71" customHeight="1">
+    <row r="98" ht="71" customHeight="1" spans="1:16">
       <c r="A98" s="2">
         <v>97</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="E98" s="4">
         <v>1</v>
@@ -5688,14 +6288,14 @@
       <c r="H98" s="4">
         <v>10</v>
       </c>
-      <c r="I98" s="8">
+      <c r="I98" s="9">
         <v>10</v>
       </c>
       <c r="J98" s="4">
         <f t="shared" ref="J98:J103" si="5">H98-I98</f>
         <v>0</v>
       </c>
-      <c r="K98" s="8">
+      <c r="K98" s="9">
         <v>1</v>
       </c>
       <c r="L98" s="2">
@@ -5707,18 +6307,18 @@
       <c r="O98" s="2"/>
       <c r="P98" s="2"/>
     </row>
-    <row r="99" spans="1:16" ht="73" customHeight="1">
+    <row r="99" ht="73" customHeight="1" spans="1:16">
       <c r="A99" s="2">
         <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="E99" s="4">
         <v>1</v>
@@ -5732,14 +6332,14 @@
       <c r="H99" s="4">
         <v>9</v>
       </c>
-      <c r="I99" s="8">
+      <c r="I99" s="9">
         <v>0</v>
       </c>
       <c r="J99" s="4">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="K99" s="8">
+      <c r="K99" s="9">
         <v>0</v>
       </c>
       <c r="L99" s="2">
@@ -5751,18 +6351,18 @@
       <c r="O99" s="2"/>
       <c r="P99" s="2"/>
     </row>
-    <row r="100" spans="1:16" ht="85">
+    <row r="100" ht="88" spans="1:16">
       <c r="A100" s="2">
         <v>99</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="E100" s="4">
         <v>1</v>
@@ -5776,14 +6376,14 @@
       <c r="H100" s="4">
         <v>1</v>
       </c>
-      <c r="I100" s="8">
+      <c r="I100" s="9">
         <v>1</v>
       </c>
       <c r="J100" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K100" s="8">
+      <c r="K100" s="9">
         <v>0</v>
       </c>
       <c r="L100" s="2">
@@ -5795,18 +6395,18 @@
       <c r="O100" s="2"/>
       <c r="P100" s="2"/>
     </row>
-    <row r="101" spans="1:16" ht="85">
+    <row r="101" ht="88" spans="1:16">
       <c r="A101" s="2">
         <v>100</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="E101" s="4">
         <v>1</v>
@@ -5820,14 +6420,14 @@
       <c r="H101" s="4">
         <v>2</v>
       </c>
-      <c r="I101" s="8">
+      <c r="I101" s="9">
         <v>2</v>
       </c>
       <c r="J101" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K101" s="8">
+      <c r="K101" s="9">
         <v>0</v>
       </c>
       <c r="L101" s="2">
@@ -5839,18 +6439,18 @@
       <c r="O101" s="2"/>
       <c r="P101" s="2"/>
     </row>
-    <row r="102" spans="1:16" ht="64" customHeight="1">
+    <row r="102" ht="64" customHeight="1" spans="1:16">
       <c r="A102" s="2">
         <v>101</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="E102" s="4">
         <v>1</v>
@@ -5864,14 +6464,14 @@
       <c r="H102" s="4">
         <v>2</v>
       </c>
-      <c r="I102" s="8">
+      <c r="I102" s="9">
         <v>0</v>
       </c>
       <c r="J102" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="K102" s="8">
+      <c r="K102" s="9">
         <v>0</v>
       </c>
       <c r="L102" s="2">
@@ -5883,18 +6483,18 @@
       <c r="O102" s="2"/>
       <c r="P102" s="2"/>
     </row>
-    <row r="103" spans="1:16" ht="85">
+    <row r="103" ht="88" spans="1:16">
       <c r="A103" s="2">
         <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="E103" s="4">
         <v>1</v>
@@ -5908,14 +6508,14 @@
       <c r="H103" s="4">
         <v>1</v>
       </c>
-      <c r="I103" s="8">
+      <c r="I103" s="9">
         <v>1</v>
       </c>
       <c r="J103" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K103" s="8">
+      <c r="K103" s="9">
         <v>0</v>
       </c>
       <c r="L103" s="2">
@@ -5927,18 +6527,18 @@
       <c r="O103" s="2"/>
       <c r="P103" s="2"/>
     </row>
-    <row r="104" spans="1:16" ht="78" customHeight="1">
+    <row r="104" ht="78" customHeight="1" spans="1:16">
       <c r="A104" s="2">
         <v>103</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="E104" s="4">
         <v>1</v>
@@ -5952,13 +6552,14 @@
       <c r="H104" s="4">
         <v>2</v>
       </c>
-      <c r="I104" s="8">
+      <c r="I104" s="9">
         <v>1</v>
       </c>
       <c r="J104" s="4">
-        <v>0</v>
-      </c>
-      <c r="K104" s="8">
+        <f>H104-I104</f>
+        <v>1</v>
+      </c>
+      <c r="K104" s="9">
         <v>0</v>
       </c>
       <c r="L104" s="2">
@@ -5970,18 +6571,18 @@
       <c r="O104" s="2"/>
       <c r="P104" s="2"/>
     </row>
-    <row r="105" spans="1:16" ht="85">
+    <row r="105" ht="88" spans="1:16">
       <c r="A105" s="2">
         <v>104</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="E105" s="4">
         <v>1</v>
@@ -6001,7 +6602,7 @@
       <c r="J105" s="4">
         <v>0</v>
       </c>
-      <c r="K105" s="8">
+      <c r="K105" s="9">
         <v>0</v>
       </c>
       <c r="L105" s="2">
@@ -6013,18 +6614,18 @@
       <c r="O105" s="2"/>
       <c r="P105" s="2"/>
     </row>
-    <row r="106" spans="1:16" ht="85">
+    <row r="106" ht="88" spans="1:16">
       <c r="A106" s="2">
         <v>105</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="E106" s="4">
         <v>1</v>
@@ -6038,14 +6639,14 @@
       <c r="H106" s="4">
         <v>1</v>
       </c>
-      <c r="I106" s="8">
+      <c r="I106" s="9">
         <v>1</v>
       </c>
       <c r="J106" s="4">
         <f t="shared" ref="J106:J111" si="6">H106-I106</f>
         <v>0</v>
       </c>
-      <c r="K106" s="8">
+      <c r="K106" s="9">
         <v>0</v>
       </c>
       <c r="L106" s="2">
@@ -6057,18 +6658,18 @@
       <c r="O106" s="2"/>
       <c r="P106" s="2"/>
     </row>
-    <row r="107" spans="1:16" ht="63" customHeight="1">
+    <row r="107" ht="63" customHeight="1" spans="1:16">
       <c r="A107" s="2">
         <v>106</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="E107" s="4">
         <v>1</v>
@@ -6082,14 +6683,14 @@
       <c r="H107" s="4">
         <v>1</v>
       </c>
-      <c r="I107" s="8">
+      <c r="I107" s="9">
         <v>1</v>
       </c>
       <c r="J107" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K107" s="8">
+      <c r="K107" s="9">
         <v>0</v>
       </c>
       <c r="L107" s="2">
@@ -6101,18 +6702,18 @@
       <c r="O107" s="2"/>
       <c r="P107" s="2"/>
     </row>
-    <row r="108" spans="1:16" ht="75" customHeight="1">
+    <row r="108" ht="75" customHeight="1" spans="1:16">
       <c r="A108" s="2">
         <v>107</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="E108" s="4">
         <v>1</v>
@@ -6126,14 +6727,14 @@
       <c r="H108" s="4">
         <v>13</v>
       </c>
-      <c r="I108" s="8">
+      <c r="I108" s="9">
         <v>13</v>
       </c>
       <c r="J108" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K108" s="8">
+      <c r="K108" s="9">
         <v>0</v>
       </c>
       <c r="L108" s="2">
@@ -6145,18 +6746,18 @@
       <c r="O108" s="2"/>
       <c r="P108" s="2"/>
     </row>
-    <row r="109" spans="1:16" ht="71" customHeight="1">
+    <row r="109" ht="71" customHeight="1" spans="1:16">
       <c r="A109" s="2">
         <v>108</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="E109" s="4">
         <v>1</v>
@@ -6170,14 +6771,14 @@
       <c r="H109" s="4">
         <v>2</v>
       </c>
-      <c r="I109" s="8">
+      <c r="I109" s="9">
         <v>2</v>
       </c>
       <c r="J109" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K109" s="8">
+      <c r="K109" s="9">
         <v>0</v>
       </c>
       <c r="L109" s="2">
@@ -6189,18 +6790,18 @@
       <c r="O109" s="2"/>
       <c r="P109" s="2"/>
     </row>
-    <row r="110" spans="1:16" ht="85">
+    <row r="110" ht="88" spans="1:16">
       <c r="A110" s="2">
         <v>109</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="E110" s="4">
         <v>1</v>
@@ -6214,14 +6815,14 @@
       <c r="H110" s="4">
         <v>1</v>
       </c>
-      <c r="I110" s="8">
+      <c r="I110" s="9">
         <v>1</v>
       </c>
       <c r="J110" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K110" s="8">
+      <c r="K110" s="9">
         <v>0</v>
       </c>
       <c r="L110" s="2">
@@ -6233,18 +6834,18 @@
       <c r="O110" s="2"/>
       <c r="P110" s="2"/>
     </row>
-    <row r="111" spans="1:16" ht="85">
+    <row r="111" ht="88" spans="1:16">
       <c r="A111" s="2">
         <v>110</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="E111" s="4">
         <v>1</v>
@@ -6258,14 +6859,14 @@
       <c r="H111" s="4">
         <v>1</v>
       </c>
-      <c r="I111" s="8">
+      <c r="I111" s="9">
         <v>1</v>
       </c>
       <c r="J111" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K111" s="8">
+      <c r="K111" s="9">
         <v>1</v>
       </c>
       <c r="L111" s="2">
@@ -6277,7 +6878,7 @@
       <c r="O111" s="2"/>
       <c r="P111" s="2"/>
     </row>
-    <row r="112" spans="1:16" ht="18" customHeight="1">
+    <row r="112" customHeight="1" spans="6:15">
       <c r="F112" s="1">
         <f t="shared" ref="F112:L112" si="7">SUM(F2:F111)</f>
         <v>4416</v>
@@ -6296,7 +6897,7 @@
       </c>
       <c r="J112" s="4">
         <f t="shared" si="7"/>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K112" s="4">
         <f t="shared" si="7"/>
@@ -6310,58 +6911,58 @@
       <c r="N112" s="4"/>
       <c r="O112" s="4"/>
     </row>
-    <row r="114" spans="9:10" ht="18" customHeight="1">
+    <row r="114" customHeight="1" spans="9:9">
       <c r="I114" s="3">
         <f>I112/H112</f>
-        <v>0.73376623376623373</v>
-      </c>
-    </row>
-    <row r="116" spans="9:10" ht="18" customHeight="1">
+        <v>0.733766233766234</v>
+      </c>
+    </row>
+    <row r="116" customHeight="1" spans="9:10">
       <c r="I116" s="3" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="J116" s="1">
         <f>I112/(I112+K112)</f>
-        <v>0.71974522292993626</v>
-      </c>
-    </row>
-    <row r="117" spans="9:10" ht="18" customHeight="1">
+        <v>0.719745222929936</v>
+      </c>
+    </row>
+    <row r="117" customHeight="1" spans="9:10">
       <c r="I117" s="3" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="J117" s="1">
         <f>I112/(I112+J112)</f>
-        <v>0.73615635179153094</v>
-      </c>
-    </row>
-    <row r="118" spans="9:10" ht="18" customHeight="1">
+        <v>0.733766233766234</v>
+      </c>
+    </row>
+    <row r="118" customHeight="1" spans="9:10">
       <c r="I118" s="3" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="J118" s="1">
         <f>2*((J116*J117)/(J116+J117))</f>
-        <v>0.72785829307568439</v>
-      </c>
-    </row>
-    <row r="119" spans="9:10" ht="18" customHeight="1">
+        <v>0.726688102893891</v>
+      </c>
+    </row>
+    <row r="119" customHeight="1" spans="9:10">
       <c r="I119" s="3" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="J119" s="1">
         <f>(I112+L112)/(I112+J112+K112+L112)</f>
-        <v>0.96172140430351072</v>
+        <v>0.961503623188406</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L119">
+  <sortState ref="A2:L119">
     <sortCondition ref="A1:A119"/>
   </sortState>
-  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C13" r:id="rId1" display="https://github.com/aws/aws-sam-cli/issues/137"/>
+    <hyperlink ref="C2" r:id="rId2" display="https://github.com/aws/serverless-application-model/issues/1057"/>
+    <hyperlink ref="C4" r:id="rId3" display="https://github.com/aws/serverless-application-model/issues/3412"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>